--- a/研討會_202307/有林務局資料/圖.xlsx
+++ b/研討會_202307/有林務局資料/圖.xlsx
@@ -29,11 +29,11 @@
     <t>Year</t>
   </si>
   <si>
-    <t>citizen scientists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>transects</t>
   </si>
   <si>
-    <t>transects</t>
+    <t>volunteers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>citizen scientists</c:v>
+                  <c:v>volunteers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1109,9 +1109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1399,7 +1399,7 @@
   <dimension ref="F7:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="6:20" x14ac:dyDescent="0.4">
